--- a/Metasheet/RNAseq Data Metasheet.xlsx
+++ b/Metasheet/RNAseq Data Metasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\RNAseq\Metasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9965B9A-E8DD-4AC8-82C8-0296FBBFEF03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB965A-5106-4781-869D-4E72C60FFFB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="-15525" windowWidth="12150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="264">
   <si>
     <t>Name</t>
   </si>
@@ -809,6 +809,24 @@
   </si>
   <si>
     <t>Date_Collected</t>
+  </si>
+  <si>
+    <t>singleend</t>
+  </si>
+  <si>
+    <t>PREHEM_PREEX</t>
+  </si>
+  <si>
+    <t>POSTHEM_PREEX</t>
+  </si>
+  <si>
+    <t>POSTHEM_POSTEX</t>
+  </si>
+  <si>
+    <t>PREHEM_POSTEX</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1135,3039 +1153,4838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>241</v>
       </c>
       <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" t="s">
         <v>240</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>239</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>135</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>170</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>171</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>184</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>173</v>
       </c>
       <c r="E2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I2" s="2">
+        <v>259</v>
+      </c>
+      <c r="I2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>184</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>174</v>
       </c>
       <c r="E3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>242</v>
-      </c>
-      <c r="I3" s="2">
+        <v>259</v>
+      </c>
+      <c r="I3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>195</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>173</v>
       </c>
       <c r="E4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I4" s="2">
+        <v>151</v>
+      </c>
+      <c r="I4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="2">
         <v>43082</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>195</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>174</v>
       </c>
       <c r="E5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="2">
+        <v>151</v>
+      </c>
+      <c r="I5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="2">
         <v>43082</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
         <v>206</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>173</v>
       </c>
       <c r="E6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I6" s="2">
+        <v>146</v>
+      </c>
+      <c r="I6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="2">
         <v>43081</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
         <v>206</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>174</v>
       </c>
       <c r="E7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I7" s="2">
+        <v>146</v>
+      </c>
+      <c r="I7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7" s="2">
         <v>43081</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
       <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
         <v>217</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>173</v>
       </c>
       <c r="E8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I8" s="2">
+        <v>146</v>
+      </c>
+      <c r="I8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
       <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
         <v>217</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>174</v>
       </c>
       <c r="E9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
-      </c>
-      <c r="I9" s="2">
+        <v>146</v>
+      </c>
+      <c r="I9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
       <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
         <v>228</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>173</v>
       </c>
       <c r="E10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I10" s="2">
+        <v>259</v>
+      </c>
+      <c r="I10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
       <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
         <v>228</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>174</v>
       </c>
       <c r="E11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I11" s="2">
+        <v>259</v>
+      </c>
+      <c r="I11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>125</v>
       </c>
       <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
         <v>235</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>173</v>
       </c>
       <c r="E12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12" s="2">
+        <v>260</v>
+      </c>
+      <c r="I12" t="s">
+        <v>242</v>
+      </c>
+      <c r="J12" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
       <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
         <v>235</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>174</v>
       </c>
       <c r="E13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>242</v>
-      </c>
-      <c r="I13" s="2">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>127</v>
       </c>
       <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
         <v>236</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>173</v>
       </c>
       <c r="E14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>242</v>
-      </c>
-      <c r="I14" s="2">
+        <v>261</v>
+      </c>
+      <c r="I14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>128</v>
       </c>
       <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
         <v>236</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>174</v>
       </c>
       <c r="E15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>242</v>
-      </c>
-      <c r="I15" s="2">
+        <v>261</v>
+      </c>
+      <c r="I15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J15" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>129</v>
       </c>
       <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
         <v>237</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>173</v>
       </c>
       <c r="E16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" t="s">
         <v>246</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>242</v>
-      </c>
-      <c r="I16" s="2">
+        <v>261</v>
+      </c>
+      <c r="I16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
       <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
         <v>237</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>174</v>
       </c>
       <c r="E17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>242</v>
-      </c>
-      <c r="I17" s="2">
+        <v>261</v>
+      </c>
+      <c r="I17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>131</v>
       </c>
       <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
         <v>238</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>173</v>
       </c>
       <c r="E18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>242</v>
-      </c>
-      <c r="I18" s="2">
+        <v>261</v>
+      </c>
+      <c r="I18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J18" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>132</v>
       </c>
       <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
         <v>238</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>174</v>
       </c>
       <c r="E19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" t="s">
         <v>246</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>242</v>
-      </c>
-      <c r="I19" s="2">
+        <v>261</v>
+      </c>
+      <c r="I19" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
         <v>172</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>173</v>
       </c>
       <c r="E20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
-      </c>
-      <c r="I20" s="2">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>242</v>
+      </c>
+      <c r="J20" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>172</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>174</v>
       </c>
       <c r="E21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" t="s">
         <v>248</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>242</v>
-      </c>
-      <c r="I21" s="2">
+        <v>146</v>
+      </c>
+      <c r="I21" t="s">
+        <v>242</v>
+      </c>
+      <c r="J21" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
         <v>175</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>173</v>
       </c>
       <c r="E22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>242</v>
-      </c>
-      <c r="I22" s="2">
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>242</v>
+      </c>
+      <c r="J22" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>175</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>174</v>
       </c>
       <c r="E23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" t="s">
         <v>245</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>242</v>
-      </c>
-      <c r="I23" s="2">
+        <v>143</v>
+      </c>
+      <c r="I23" t="s">
+        <v>242</v>
+      </c>
+      <c r="J23" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>176</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>173</v>
       </c>
       <c r="E24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" t="s">
         <v>249</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>242</v>
-      </c>
-      <c r="I24" s="2">
+        <v>143</v>
+      </c>
+      <c r="I24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J24" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
         <v>176</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>174</v>
       </c>
       <c r="E25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F25" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
-      </c>
-      <c r="I25" s="2">
+        <v>143</v>
+      </c>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
         <v>177</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>173</v>
       </c>
       <c r="E26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" t="s">
         <v>250</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>242</v>
-      </c>
-      <c r="I26" s="2">
+        <v>262</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
         <v>177</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>174</v>
       </c>
       <c r="E27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" t="s">
         <v>250</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
-      </c>
-      <c r="I27" s="2">
+        <v>262</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>178</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>173</v>
       </c>
       <c r="E28" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" t="s">
         <v>251</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H28" t="s">
-        <v>242</v>
-      </c>
-      <c r="I28" s="2">
+        <v>146</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" s="2">
         <v>43077</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
         <v>178</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>174</v>
       </c>
       <c r="E29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29" t="s">
         <v>251</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H29" t="s">
-        <v>242</v>
-      </c>
-      <c r="I29" s="2">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" s="2">
         <v>43077</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
         <v>179</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>173</v>
       </c>
       <c r="E30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H30" t="s">
-        <v>242</v>
-      </c>
-      <c r="I30" s="2">
+        <v>146</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
         <v>179</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>174</v>
       </c>
       <c r="E31" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" t="s">
         <v>247</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>242</v>
-      </c>
-      <c r="I31" s="2">
+        <v>146</v>
+      </c>
+      <c r="I31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
         <v>180</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>173</v>
       </c>
       <c r="E32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" t="s">
         <v>252</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H32" t="s">
-        <v>242</v>
-      </c>
-      <c r="I32" s="2">
+        <v>143</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
         <v>180</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>174</v>
       </c>
       <c r="E33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" t="s">
         <v>252</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H33" t="s">
-        <v>242</v>
-      </c>
-      <c r="I33" s="2">
+        <v>143</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
         <v>181</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>173</v>
       </c>
       <c r="E34" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>242</v>
-      </c>
-      <c r="I34" s="2">
+        <v>260</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="2">
         <v>43085</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
         <v>181</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>174</v>
       </c>
       <c r="E35" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" t="s">
         <v>250</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>242</v>
-      </c>
-      <c r="I35" s="2">
+        <v>260</v>
+      </c>
+      <c r="I35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" s="2">
         <v>43085</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
         <v>182</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>173</v>
       </c>
       <c r="E36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H36" t="s">
-        <v>242</v>
-      </c>
-      <c r="I36" s="2">
+        <v>153</v>
+      </c>
+      <c r="I36" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
         <v>182</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>174</v>
       </c>
       <c r="E37" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" t="s">
         <v>252</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H37" t="s">
-        <v>242</v>
-      </c>
-      <c r="I37" s="2">
+        <v>153</v>
+      </c>
+      <c r="I37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
       <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
         <v>183</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>173</v>
       </c>
       <c r="E38" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" t="s">
         <v>249</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H38" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="2">
+        <v>146</v>
+      </c>
+      <c r="I38" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
       <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
         <v>183</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>174</v>
       </c>
       <c r="E39" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" t="s">
         <v>249</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H39" t="s">
-        <v>242</v>
-      </c>
-      <c r="I39" s="2">
+        <v>146</v>
+      </c>
+      <c r="I39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
       <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
         <v>185</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>173</v>
       </c>
       <c r="E40" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40" t="s">
         <v>253</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
-      </c>
-      <c r="I40" s="2">
+        <v>146</v>
+      </c>
+      <c r="I40" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" s="2">
         <v>43077</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
         <v>185</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>174</v>
       </c>
       <c r="E41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" t="s">
         <v>253</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H41" t="s">
-        <v>242</v>
-      </c>
-      <c r="I41" s="2">
+        <v>146</v>
+      </c>
+      <c r="I41" t="s">
+        <v>242</v>
+      </c>
+      <c r="J41" s="2">
         <v>43077</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
       <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
         <v>186</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>173</v>
       </c>
       <c r="E42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F42" t="s">
         <v>246</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H42" t="s">
-        <v>242</v>
-      </c>
-      <c r="I42" s="2">
+        <v>146</v>
+      </c>
+      <c r="I42" t="s">
+        <v>242</v>
+      </c>
+      <c r="J42" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
       <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
         <v>186</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>174</v>
       </c>
       <c r="E43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" t="s">
         <v>246</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H43" t="s">
-        <v>242</v>
-      </c>
-      <c r="I43" s="2">
+        <v>146</v>
+      </c>
+      <c r="I43" t="s">
+        <v>242</v>
+      </c>
+      <c r="J43" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
       <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
         <v>187</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>173</v>
       </c>
       <c r="E44" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" t="s">
         <v>244</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>242</v>
-      </c>
-      <c r="I44" s="2">
+        <v>261</v>
+      </c>
+      <c r="I44" t="s">
+        <v>242</v>
+      </c>
+      <c r="J44" s="2">
         <v>43085</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
       <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
         <v>187</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>174</v>
       </c>
       <c r="E45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H45" t="s">
-        <v>242</v>
-      </c>
-      <c r="I45" s="2">
+        <v>261</v>
+      </c>
+      <c r="I45" t="s">
+        <v>242</v>
+      </c>
+      <c r="J45" s="2">
         <v>43085</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
       <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
         <v>188</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>173</v>
       </c>
       <c r="E46" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" t="s">
         <v>248</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H46" t="s">
-        <v>242</v>
-      </c>
-      <c r="I46" s="2">
+        <v>143</v>
+      </c>
+      <c r="I46" t="s">
+        <v>242</v>
+      </c>
+      <c r="J46" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
       <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
         <v>188</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>174</v>
       </c>
       <c r="E47" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" t="s">
         <v>248</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H47" t="s">
-        <v>242</v>
-      </c>
-      <c r="I47" s="2">
+        <v>143</v>
+      </c>
+      <c r="I47" t="s">
+        <v>242</v>
+      </c>
+      <c r="J47" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
       <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
         <v>189</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>173</v>
       </c>
       <c r="E48" t="s">
+        <v>258</v>
+      </c>
+      <c r="F48" t="s">
         <v>247</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>242</v>
-      </c>
-      <c r="I48" s="2">
+        <v>151</v>
+      </c>
+      <c r="I48" t="s">
+        <v>242</v>
+      </c>
+      <c r="J48" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
       <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
         <v>189</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>174</v>
       </c>
       <c r="E49" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" t="s">
         <v>247</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H49" t="s">
-        <v>242</v>
-      </c>
-      <c r="I49" s="2">
+        <v>151</v>
+      </c>
+      <c r="I49" t="s">
+        <v>242</v>
+      </c>
+      <c r="J49" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
         <v>190</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>173</v>
       </c>
       <c r="E50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" t="s">
         <v>244</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>242</v>
-      </c>
-      <c r="I50" s="2">
+        <v>151</v>
+      </c>
+      <c r="I50" t="s">
+        <v>242</v>
+      </c>
+      <c r="J50" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
       <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
         <v>190</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>174</v>
       </c>
       <c r="E51" t="s">
+        <v>258</v>
+      </c>
+      <c r="F51" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>242</v>
-      </c>
-      <c r="I51" s="2">
+        <v>151</v>
+      </c>
+      <c r="I51" t="s">
+        <v>242</v>
+      </c>
+      <c r="J51" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
       <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
         <v>191</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>173</v>
       </c>
       <c r="E52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F52" t="s">
         <v>254</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>242</v>
-      </c>
-      <c r="I52" s="2">
+        <v>151</v>
+      </c>
+      <c r="I52" t="s">
+        <v>242</v>
+      </c>
+      <c r="J52" s="2">
         <v>43082</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
       <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
         <v>191</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>174</v>
       </c>
       <c r="E53" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" t="s">
         <v>254</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H53" t="s">
-        <v>242</v>
-      </c>
-      <c r="I53" s="2">
+        <v>151</v>
+      </c>
+      <c r="I53" t="s">
+        <v>242</v>
+      </c>
+      <c r="J53" s="2">
         <v>43082</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>39</v>
       </c>
       <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" t="s">
         <v>192</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>173</v>
       </c>
       <c r="E54" t="s">
+        <v>258</v>
+      </c>
+      <c r="F54" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H54" t="s">
-        <v>242</v>
-      </c>
-      <c r="I54" s="2">
+        <v>151</v>
+      </c>
+      <c r="I54" t="s">
+        <v>242</v>
+      </c>
+      <c r="J54" s="2">
         <v>43083</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
       <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
         <v>192</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>174</v>
       </c>
       <c r="E55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" t="s">
         <v>246</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>242</v>
-      </c>
-      <c r="I55" s="2">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
+        <v>242</v>
+      </c>
+      <c r="J55" s="2">
         <v>43083</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
       <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
         <v>193</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>173</v>
       </c>
       <c r="E56" t="s">
+        <v>258</v>
+      </c>
+      <c r="F56" t="s">
         <v>245</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H56" t="s">
-        <v>242</v>
-      </c>
-      <c r="I56" s="2">
+        <v>153</v>
+      </c>
+      <c r="I56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J56" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56" s="1"/>
+      <c r="L56" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
       <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
         <v>193</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>174</v>
       </c>
       <c r="E57" t="s">
+        <v>258</v>
+      </c>
+      <c r="F57" t="s">
         <v>245</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H57" t="s">
-        <v>242</v>
-      </c>
-      <c r="I57" s="2">
+        <v>153</v>
+      </c>
+      <c r="I57" t="s">
+        <v>242</v>
+      </c>
+      <c r="J57" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
       <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
         <v>194</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>173</v>
       </c>
       <c r="E58" t="s">
+        <v>258</v>
+      </c>
+      <c r="F58" t="s">
         <v>243</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H58" t="s">
-        <v>242</v>
-      </c>
-      <c r="I58" s="2">
+        <v>261</v>
+      </c>
+      <c r="I58" t="s">
+        <v>242</v>
+      </c>
+      <c r="J58" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
       <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
         <v>194</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>174</v>
       </c>
       <c r="E59" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" t="s">
         <v>243</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H59" t="s">
-        <v>242</v>
-      </c>
-      <c r="I59" s="2">
+        <v>261</v>
+      </c>
+      <c r="I59" t="s">
+        <v>242</v>
+      </c>
+      <c r="J59" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>47</v>
       </c>
       <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="s">
         <v>196</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>173</v>
       </c>
       <c r="E60" t="s">
+        <v>258</v>
+      </c>
+      <c r="F60" t="s">
         <v>247</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H60" t="s">
-        <v>242</v>
-      </c>
-      <c r="I60" s="2">
+        <v>259</v>
+      </c>
+      <c r="I60" t="s">
+        <v>242</v>
+      </c>
+      <c r="J60" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K60" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
       <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
         <v>196</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>174</v>
       </c>
       <c r="E61" t="s">
+        <v>258</v>
+      </c>
+      <c r="F61" t="s">
         <v>247</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H61" t="s">
-        <v>242</v>
-      </c>
-      <c r="I61" s="2">
+        <v>259</v>
+      </c>
+      <c r="I61" t="s">
+        <v>242</v>
+      </c>
+      <c r="J61" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
       <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" t="s">
         <v>197</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>173</v>
       </c>
       <c r="E62" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" t="s">
         <v>244</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H62" t="s">
-        <v>242</v>
-      </c>
-      <c r="I62" s="2">
+        <v>262</v>
+      </c>
+      <c r="I62" t="s">
+        <v>242</v>
+      </c>
+      <c r="J62" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>50</v>
       </c>
       <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
         <v>197</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>174</v>
       </c>
       <c r="E63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" t="s">
         <v>244</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H63" t="s">
-        <v>242</v>
-      </c>
-      <c r="I63" s="2">
+        <v>262</v>
+      </c>
+      <c r="I63" t="s">
+        <v>242</v>
+      </c>
+      <c r="J63" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
       <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" t="s">
         <v>198</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>173</v>
       </c>
       <c r="E64" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" t="s">
         <v>247</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H64" t="s">
-        <v>242</v>
-      </c>
-      <c r="I64" s="2">
+        <v>262</v>
+      </c>
+      <c r="I64" t="s">
+        <v>242</v>
+      </c>
+      <c r="J64" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
       <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" t="s">
         <v>198</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>174</v>
       </c>
       <c r="E65" t="s">
+        <v>258</v>
+      </c>
+      <c r="F65" t="s">
         <v>247</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H65" t="s">
-        <v>242</v>
-      </c>
-      <c r="I65" s="2">
+        <v>262</v>
+      </c>
+      <c r="I65" t="s">
+        <v>242</v>
+      </c>
+      <c r="J65" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
       <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
         <v>199</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>173</v>
       </c>
       <c r="E66" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" t="s">
         <v>243</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
-      </c>
-      <c r="I66" s="2">
+        <v>151</v>
+      </c>
+      <c r="I66" t="s">
+        <v>242</v>
+      </c>
+      <c r="J66" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>54</v>
       </c>
       <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
         <v>199</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>174</v>
       </c>
       <c r="E67" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" t="s">
         <v>243</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H67" t="s">
-        <v>242</v>
-      </c>
-      <c r="I67" s="2">
+        <v>151</v>
+      </c>
+      <c r="I67" t="s">
+        <v>242</v>
+      </c>
+      <c r="J67" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
       <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
         <v>200</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>173</v>
       </c>
       <c r="E68" t="s">
+        <v>258</v>
+      </c>
+      <c r="F68" t="s">
         <v>254</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H68" t="s">
-        <v>242</v>
-      </c>
-      <c r="I68" s="2">
+        <v>259</v>
+      </c>
+      <c r="I68" t="s">
+        <v>242</v>
+      </c>
+      <c r="J68" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>56</v>
       </c>
       <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s">
         <v>200</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>174</v>
       </c>
       <c r="E69" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69" t="s">
         <v>254</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H69" t="s">
-        <v>242</v>
-      </c>
-      <c r="I69" s="2">
+        <v>259</v>
+      </c>
+      <c r="I69" t="s">
+        <v>242</v>
+      </c>
+      <c r="J69" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>57</v>
       </c>
       <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" t="s">
         <v>201</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>173</v>
       </c>
       <c r="E70" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" t="s">
         <v>250</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H70" t="s">
-        <v>242</v>
-      </c>
-      <c r="I70" s="2">
+        <v>261</v>
+      </c>
+      <c r="I70" t="s">
+        <v>242</v>
+      </c>
+      <c r="J70" s="2">
         <v>43085</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>58</v>
       </c>
       <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" t="s">
         <v>201</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>174</v>
       </c>
       <c r="E71" t="s">
+        <v>258</v>
+      </c>
+      <c r="F71" t="s">
         <v>250</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H71" t="s">
-        <v>242</v>
-      </c>
-      <c r="I71" s="2">
+        <v>261</v>
+      </c>
+      <c r="I71" t="s">
+        <v>242</v>
+      </c>
+      <c r="J71" s="2">
         <v>43085</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
       <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
         <v>202</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>173</v>
       </c>
       <c r="E72" t="s">
+        <v>258</v>
+      </c>
+      <c r="F72" t="s">
         <v>255</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H72" t="s">
-        <v>242</v>
-      </c>
-      <c r="I72" s="2">
+        <v>143</v>
+      </c>
+      <c r="I72" t="s">
+        <v>242</v>
+      </c>
+      <c r="J72" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K72" s="1"/>
+      <c r="L72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>60</v>
       </c>
       <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" t="s">
         <v>202</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>174</v>
       </c>
       <c r="E73" t="s">
+        <v>258</v>
+      </c>
+      <c r="F73" t="s">
         <v>255</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H73" t="s">
-        <v>242</v>
-      </c>
-      <c r="I73" s="2">
+        <v>143</v>
+      </c>
+      <c r="I73" t="s">
+        <v>242</v>
+      </c>
+      <c r="J73" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>61</v>
       </c>
       <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" t="s">
         <v>203</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>173</v>
       </c>
       <c r="E74" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" t="s">
         <v>251</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H74" t="s">
-        <v>242</v>
-      </c>
-      <c r="I74" s="2">
+        <v>153</v>
+      </c>
+      <c r="I74" t="s">
+        <v>242</v>
+      </c>
+      <c r="J74" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>62</v>
       </c>
       <c r="B75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" t="s">
         <v>203</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>174</v>
       </c>
       <c r="E75" t="s">
+        <v>258</v>
+      </c>
+      <c r="F75" t="s">
         <v>251</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H75" t="s">
-        <v>242</v>
-      </c>
-      <c r="I75" s="2">
+        <v>153</v>
+      </c>
+      <c r="I75" t="s">
+        <v>242</v>
+      </c>
+      <c r="J75" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K75" s="1"/>
+      <c r="L75" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>63</v>
       </c>
       <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s">
         <v>204</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>173</v>
       </c>
       <c r="E76" t="s">
+        <v>258</v>
+      </c>
+      <c r="F76" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H76" t="s">
-        <v>242</v>
-      </c>
-      <c r="I76" s="2">
+        <v>146</v>
+      </c>
+      <c r="I76" t="s">
+        <v>242</v>
+      </c>
+      <c r="J76" s="2">
         <v>43077</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>64</v>
       </c>
       <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" t="s">
         <v>204</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>174</v>
       </c>
       <c r="E77" t="s">
+        <v>258</v>
+      </c>
+      <c r="F77" t="s">
         <v>256</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H77" t="s">
-        <v>242</v>
-      </c>
-      <c r="I77" s="2">
+        <v>146</v>
+      </c>
+      <c r="I77" t="s">
+        <v>242</v>
+      </c>
+      <c r="J77" s="2">
         <v>43077</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>65</v>
       </c>
       <c r="B78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" t="s">
         <v>205</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>173</v>
       </c>
       <c r="E78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" t="s">
         <v>247</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H78" t="s">
-        <v>242</v>
-      </c>
-      <c r="I78" s="2">
+        <v>260</v>
+      </c>
+      <c r="I78" t="s">
+        <v>242</v>
+      </c>
+      <c r="J78" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
       <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
         <v>205</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>174</v>
       </c>
       <c r="E79" t="s">
+        <v>258</v>
+      </c>
+      <c r="F79" t="s">
         <v>247</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H79" t="s">
-        <v>242</v>
-      </c>
-      <c r="I79" s="2">
+        <v>260</v>
+      </c>
+      <c r="I79" t="s">
+        <v>242</v>
+      </c>
+      <c r="J79" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
       <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
         <v>207</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>173</v>
       </c>
       <c r="E80" t="s">
+        <v>258</v>
+      </c>
+      <c r="F80" t="s">
         <v>251</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H80" t="s">
-        <v>242</v>
-      </c>
-      <c r="I80" s="2">
+        <v>143</v>
+      </c>
+      <c r="I80" t="s">
+        <v>242</v>
+      </c>
+      <c r="J80" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K80" s="1"/>
+      <c r="L80" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>70</v>
       </c>
       <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
         <v>207</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>174</v>
       </c>
       <c r="E81" t="s">
+        <v>258</v>
+      </c>
+      <c r="F81" t="s">
         <v>251</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H81" t="s">
-        <v>242</v>
-      </c>
-      <c r="I81" s="2">
+        <v>143</v>
+      </c>
+      <c r="I81" t="s">
+        <v>242</v>
+      </c>
+      <c r="J81" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K81" s="1"/>
+      <c r="L81" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>71</v>
       </c>
       <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" t="s">
         <v>208</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>173</v>
       </c>
       <c r="E82" t="s">
+        <v>258</v>
+      </c>
+      <c r="F82" t="s">
         <v>254</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H82" t="s">
-        <v>242</v>
-      </c>
-      <c r="I82" s="2">
+        <v>151</v>
+      </c>
+      <c r="I82" t="s">
+        <v>242</v>
+      </c>
+      <c r="J82" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>72</v>
       </c>
       <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
         <v>208</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>174</v>
       </c>
       <c r="E83" t="s">
+        <v>258</v>
+      </c>
+      <c r="F83" t="s">
         <v>254</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H83" t="s">
-        <v>242</v>
-      </c>
-      <c r="I83" s="2">
+        <v>151</v>
+      </c>
+      <c r="I83" t="s">
+        <v>242</v>
+      </c>
+      <c r="J83" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>73</v>
       </c>
       <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" t="s">
         <v>209</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>173</v>
       </c>
       <c r="E84" t="s">
+        <v>258</v>
+      </c>
+      <c r="F84" t="s">
         <v>254</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H84" t="s">
-        <v>242</v>
-      </c>
-      <c r="I84" s="2">
+        <v>146</v>
+      </c>
+      <c r="I84" t="s">
+        <v>242</v>
+      </c>
+      <c r="J84" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>74</v>
       </c>
       <c r="B85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" t="s">
         <v>209</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>174</v>
       </c>
       <c r="E85" t="s">
+        <v>258</v>
+      </c>
+      <c r="F85" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H85" t="s">
-        <v>242</v>
-      </c>
-      <c r="I85" s="2">
+        <v>146</v>
+      </c>
+      <c r="I85" t="s">
+        <v>242</v>
+      </c>
+      <c r="J85" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>75</v>
       </c>
       <c r="B86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" t="s">
         <v>210</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>173</v>
       </c>
       <c r="E86" t="s">
+        <v>258</v>
+      </c>
+      <c r="F86" t="s">
         <v>252</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H86" t="s">
-        <v>242</v>
-      </c>
-      <c r="I86" s="2">
+        <v>146</v>
+      </c>
+      <c r="I86" t="s">
+        <v>242</v>
+      </c>
+      <c r="J86" s="2">
         <v>43077</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>76</v>
       </c>
       <c r="B87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" t="s">
         <v>210</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>174</v>
       </c>
       <c r="E87" t="s">
+        <v>258</v>
+      </c>
+      <c r="F87" t="s">
         <v>252</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H87" t="s">
-        <v>242</v>
-      </c>
-      <c r="I87" s="2">
+        <v>146</v>
+      </c>
+      <c r="I87" t="s">
+        <v>242</v>
+      </c>
+      <c r="J87" s="2">
         <v>43077</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>77</v>
       </c>
       <c r="B88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" t="s">
         <v>211</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>173</v>
       </c>
       <c r="E88" t="s">
+        <v>258</v>
+      </c>
+      <c r="F88" t="s">
         <v>253</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H88" t="s">
-        <v>242</v>
-      </c>
-      <c r="I88" s="2">
+        <v>143</v>
+      </c>
+      <c r="I88" t="s">
+        <v>242</v>
+      </c>
+      <c r="J88" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K88" s="1"/>
+      <c r="L88" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>78</v>
       </c>
       <c r="B89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" t="s">
         <v>211</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>174</v>
       </c>
       <c r="E89" t="s">
+        <v>258</v>
+      </c>
+      <c r="F89" t="s">
         <v>253</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H89" t="s">
-        <v>242</v>
-      </c>
-      <c r="I89" s="2">
+        <v>143</v>
+      </c>
+      <c r="I89" t="s">
+        <v>242</v>
+      </c>
+      <c r="J89" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K89" s="1"/>
+      <c r="L89" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>79</v>
       </c>
       <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s">
         <v>212</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>173</v>
       </c>
       <c r="E90" t="s">
+        <v>258</v>
+      </c>
+      <c r="F90" t="s">
         <v>246</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H90" t="s">
-        <v>242</v>
-      </c>
-      <c r="I90" s="2">
+        <v>260</v>
+      </c>
+      <c r="I90" t="s">
+        <v>242</v>
+      </c>
+      <c r="J90" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K90" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>80</v>
       </c>
       <c r="B91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" t="s">
         <v>212</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>174</v>
       </c>
       <c r="E91" t="s">
+        <v>258</v>
+      </c>
+      <c r="F91" t="s">
         <v>246</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H91" t="s">
-        <v>242</v>
-      </c>
-      <c r="I91" s="2">
+        <v>260</v>
+      </c>
+      <c r="I91" t="s">
+        <v>242</v>
+      </c>
+      <c r="J91" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K91" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>81</v>
       </c>
       <c r="B92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" t="s">
         <v>213</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>173</v>
       </c>
       <c r="E92" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" t="s">
         <v>243</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H92" t="s">
-        <v>242</v>
-      </c>
-      <c r="I92" s="2">
+        <v>260</v>
+      </c>
+      <c r="I92" t="s">
+        <v>242</v>
+      </c>
+      <c r="J92" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>82</v>
       </c>
       <c r="B93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" t="s">
         <v>213</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>174</v>
       </c>
       <c r="E93" t="s">
+        <v>258</v>
+      </c>
+      <c r="F93" t="s">
         <v>243</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H93" t="s">
-        <v>242</v>
-      </c>
-      <c r="I93" s="2">
+        <v>260</v>
+      </c>
+      <c r="I93" t="s">
+        <v>242</v>
+      </c>
+      <c r="J93" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>83</v>
       </c>
       <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" t="s">
         <v>214</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>173</v>
       </c>
       <c r="E94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F94" t="s">
         <v>246</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H94" t="s">
-        <v>242</v>
-      </c>
-      <c r="I94" s="2">
+        <v>262</v>
+      </c>
+      <c r="I94" t="s">
+        <v>242</v>
+      </c>
+      <c r="J94" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K94" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>84</v>
       </c>
       <c r="B95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
         <v>214</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>174</v>
       </c>
       <c r="E95" t="s">
+        <v>258</v>
+      </c>
+      <c r="F95" t="s">
         <v>246</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H95" t="s">
-        <v>242</v>
-      </c>
-      <c r="I95" s="2">
+        <v>262</v>
+      </c>
+      <c r="I95" t="s">
+        <v>242</v>
+      </c>
+      <c r="J95" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K95" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>85</v>
       </c>
       <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" t="s">
         <v>215</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>173</v>
       </c>
       <c r="E96" t="s">
+        <v>258</v>
+      </c>
+      <c r="F96" t="s">
         <v>248</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H96" t="s">
-        <v>242</v>
-      </c>
-      <c r="I96" s="2">
+        <v>153</v>
+      </c>
+      <c r="I96" t="s">
+        <v>242</v>
+      </c>
+      <c r="J96" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K96" s="1"/>
+      <c r="L96" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>86</v>
       </c>
       <c r="B97" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" t="s">
         <v>215</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>174</v>
       </c>
       <c r="E97" t="s">
+        <v>258</v>
+      </c>
+      <c r="F97" t="s">
         <v>248</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H97" t="s">
-        <v>242</v>
-      </c>
-      <c r="I97" s="2">
+        <v>153</v>
+      </c>
+      <c r="I97" t="s">
+        <v>242</v>
+      </c>
+      <c r="J97" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K97" s="1"/>
+      <c r="L97" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
       <c r="B98" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" t="s">
         <v>216</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>173</v>
       </c>
       <c r="E98" t="s">
+        <v>258</v>
+      </c>
+      <c r="F98" t="s">
         <v>243</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H98" t="s">
-        <v>242</v>
-      </c>
-      <c r="I98" s="2">
+        <v>146</v>
+      </c>
+      <c r="I98" t="s">
+        <v>242</v>
+      </c>
+      <c r="J98" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>88</v>
       </c>
       <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
         <v>216</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>174</v>
       </c>
       <c r="E99" t="s">
+        <v>258</v>
+      </c>
+      <c r="F99" t="s">
         <v>243</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H99" t="s">
-        <v>242</v>
-      </c>
-      <c r="I99" s="2">
+        <v>146</v>
+      </c>
+      <c r="I99" t="s">
+        <v>242</v>
+      </c>
+      <c r="J99" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>91</v>
       </c>
       <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" t="s">
         <v>218</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>173</v>
       </c>
       <c r="E100" t="s">
+        <v>258</v>
+      </c>
+      <c r="F100" t="s">
         <v>253</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H100" t="s">
-        <v>242</v>
-      </c>
-      <c r="I100" s="2">
+        <v>153</v>
+      </c>
+      <c r="I100" t="s">
+        <v>242</v>
+      </c>
+      <c r="J100" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K100" s="1"/>
+      <c r="L100" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>92</v>
       </c>
       <c r="B101" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" t="s">
         <v>218</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>174</v>
       </c>
       <c r="E101" t="s">
+        <v>258</v>
+      </c>
+      <c r="F101" t="s">
         <v>253</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H101" t="s">
-        <v>242</v>
-      </c>
-      <c r="I101" s="2">
+        <v>153</v>
+      </c>
+      <c r="I101" t="s">
+        <v>242</v>
+      </c>
+      <c r="J101" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K101" s="1"/>
+      <c r="L101" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>93</v>
       </c>
       <c r="B102" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" t="s">
         <v>219</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>173</v>
       </c>
       <c r="E102" t="s">
+        <v>258</v>
+      </c>
+      <c r="F102" t="s">
         <v>256</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H102" t="s">
-        <v>242</v>
-      </c>
-      <c r="I102" s="2">
+        <v>143</v>
+      </c>
+      <c r="I102" t="s">
+        <v>242</v>
+      </c>
+      <c r="J102" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K102" s="1"/>
+      <c r="L102" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>94</v>
       </c>
       <c r="B103" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" t="s">
         <v>219</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>174</v>
       </c>
       <c r="E103" t="s">
+        <v>258</v>
+      </c>
+      <c r="F103" t="s">
         <v>256</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H103" t="s">
-        <v>242</v>
-      </c>
-      <c r="I103" s="2">
+        <v>143</v>
+      </c>
+      <c r="I103" t="s">
+        <v>242</v>
+      </c>
+      <c r="J103" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K103" s="1"/>
+      <c r="L103" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>95</v>
       </c>
       <c r="B104" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" t="s">
         <v>220</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>173</v>
       </c>
       <c r="E104" t="s">
+        <v>258</v>
+      </c>
+      <c r="F104" t="s">
         <v>246</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H104" t="s">
-        <v>242</v>
-      </c>
-      <c r="I104" s="2">
+        <v>151</v>
+      </c>
+      <c r="I104" t="s">
+        <v>242</v>
+      </c>
+      <c r="J104" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>96</v>
       </c>
       <c r="B105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" t="s">
         <v>220</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>174</v>
       </c>
       <c r="E105" t="s">
+        <v>258</v>
+      </c>
+      <c r="F105" t="s">
         <v>246</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H105" t="s">
-        <v>242</v>
-      </c>
-      <c r="I105" s="2">
+        <v>151</v>
+      </c>
+      <c r="I105" t="s">
+        <v>242</v>
+      </c>
+      <c r="J105" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K105" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>97</v>
       </c>
       <c r="B106" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" t="s">
         <v>221</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>173</v>
       </c>
       <c r="E106" t="s">
+        <v>258</v>
+      </c>
+      <c r="F106" t="s">
         <v>255</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H106" t="s">
-        <v>242</v>
-      </c>
-      <c r="I106" s="2">
+        <v>146</v>
+      </c>
+      <c r="I106" t="s">
+        <v>242</v>
+      </c>
+      <c r="J106" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
       <c r="B107" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" t="s">
         <v>221</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>174</v>
       </c>
       <c r="E107" t="s">
+        <v>258</v>
+      </c>
+      <c r="F107" t="s">
         <v>255</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H107" t="s">
-        <v>242</v>
-      </c>
-      <c r="I107" s="2">
+        <v>146</v>
+      </c>
+      <c r="I107" t="s">
+        <v>242</v>
+      </c>
+      <c r="J107" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>99</v>
       </c>
       <c r="B108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" t="s">
         <v>222</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>173</v>
       </c>
       <c r="E108" t="s">
+        <v>258</v>
+      </c>
+      <c r="F108" t="s">
         <v>247</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H108" t="s">
-        <v>242</v>
-      </c>
-      <c r="I108" s="2">
+        <v>263</v>
+      </c>
+      <c r="I108" t="s">
+        <v>242</v>
+      </c>
+      <c r="J108" s="2">
         <v>43082</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>100</v>
       </c>
       <c r="B109" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
         <v>222</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>174</v>
       </c>
       <c r="E109" t="s">
+        <v>258</v>
+      </c>
+      <c r="F109" t="s">
         <v>247</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H109" t="s">
-        <v>242</v>
-      </c>
-      <c r="I109" s="2">
+        <v>263</v>
+      </c>
+      <c r="I109" t="s">
+        <v>242</v>
+      </c>
+      <c r="J109" s="2">
         <v>43082</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>101</v>
       </c>
       <c r="B110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" t="s">
         <v>223</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>173</v>
       </c>
       <c r="E110" t="s">
+        <v>258</v>
+      </c>
+      <c r="F110" t="s">
         <v>249</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H110" t="s">
-        <v>242</v>
-      </c>
-      <c r="I110" s="2">
+        <v>153</v>
+      </c>
+      <c r="I110" t="s">
+        <v>242</v>
+      </c>
+      <c r="J110" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K110" s="1"/>
+      <c r="L110" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>102</v>
       </c>
       <c r="B111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" t="s">
         <v>223</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>174</v>
       </c>
       <c r="E111" t="s">
+        <v>258</v>
+      </c>
+      <c r="F111" t="s">
         <v>249</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H111" t="s">
-        <v>242</v>
-      </c>
-      <c r="I111" s="2">
+        <v>153</v>
+      </c>
+      <c r="I111" t="s">
+        <v>242</v>
+      </c>
+      <c r="J111" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K111" s="1"/>
+      <c r="L111" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>103</v>
       </c>
       <c r="B112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" t="s">
         <v>224</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>173</v>
       </c>
       <c r="E112" t="s">
+        <v>258</v>
+      </c>
+      <c r="F112" t="s">
         <v>243</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H112" t="s">
-        <v>242</v>
-      </c>
-      <c r="I112" s="2">
+        <v>262</v>
+      </c>
+      <c r="I112" t="s">
+        <v>242</v>
+      </c>
+      <c r="J112" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>104</v>
       </c>
       <c r="B113" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" t="s">
         <v>224</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>174</v>
       </c>
       <c r="E113" t="s">
+        <v>258</v>
+      </c>
+      <c r="F113" t="s">
         <v>243</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H113" t="s">
-        <v>242</v>
-      </c>
-      <c r="I113" s="2">
+        <v>262</v>
+      </c>
+      <c r="I113" t="s">
+        <v>242</v>
+      </c>
+      <c r="J113" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>105</v>
       </c>
       <c r="B114" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114" t="s">
         <v>225</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>173</v>
       </c>
       <c r="E114" t="s">
+        <v>258</v>
+      </c>
+      <c r="F114" t="s">
         <v>250</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H114" t="s">
-        <v>242</v>
-      </c>
-      <c r="I114" s="2">
+        <v>259</v>
+      </c>
+      <c r="I114" t="s">
+        <v>242</v>
+      </c>
+      <c r="J114" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>106</v>
       </c>
       <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" t="s">
         <v>225</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>174</v>
       </c>
       <c r="E115" t="s">
+        <v>258</v>
+      </c>
+      <c r="F115" t="s">
         <v>250</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H115" t="s">
-        <v>242</v>
-      </c>
-      <c r="I115" s="2">
+        <v>259</v>
+      </c>
+      <c r="I115" t="s">
+        <v>242</v>
+      </c>
+      <c r="J115" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>107</v>
       </c>
       <c r="B116" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" t="s">
         <v>226</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>173</v>
       </c>
       <c r="E116" t="s">
+        <v>258</v>
+      </c>
+      <c r="F116" t="s">
         <v>254</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H116" t="s">
-        <v>242</v>
-      </c>
-      <c r="I116" s="2">
+        <v>260</v>
+      </c>
+      <c r="I116" t="s">
+        <v>242</v>
+      </c>
+      <c r="J116" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K116" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>108</v>
       </c>
       <c r="B117" t="s">
+        <v>108</v>
+      </c>
+      <c r="C117" t="s">
         <v>226</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>174</v>
       </c>
       <c r="E117" t="s">
+        <v>258</v>
+      </c>
+      <c r="F117" t="s">
         <v>254</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H117" t="s">
-        <v>242</v>
-      </c>
-      <c r="I117" s="2">
+        <v>260</v>
+      </c>
+      <c r="I117" t="s">
+        <v>242</v>
+      </c>
+      <c r="J117" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K117" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>109</v>
       </c>
       <c r="B118" t="s">
+        <v>109</v>
+      </c>
+      <c r="C118" t="s">
         <v>227</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>173</v>
       </c>
       <c r="E118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F118" t="s">
         <v>254</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H118" t="s">
-        <v>242</v>
-      </c>
-      <c r="I118" s="2">
+        <v>261</v>
+      </c>
+      <c r="I118" t="s">
+        <v>242</v>
+      </c>
+      <c r="J118" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K118" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>110</v>
       </c>
       <c r="B119" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" t="s">
         <v>227</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>174</v>
       </c>
       <c r="E119" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" t="s">
         <v>254</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H119" t="s">
-        <v>242</v>
-      </c>
-      <c r="I119" s="2">
+        <v>261</v>
+      </c>
+      <c r="I119" t="s">
+        <v>242</v>
+      </c>
+      <c r="J119" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K119" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>113</v>
       </c>
       <c r="B120" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" t="s">
         <v>229</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>173</v>
       </c>
       <c r="E120" t="s">
+        <v>258</v>
+      </c>
+      <c r="F120" t="s">
         <v>244</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H120" t="s">
-        <v>242</v>
-      </c>
-      <c r="I120" s="2">
+        <v>259</v>
+      </c>
+      <c r="I120" t="s">
+        <v>242</v>
+      </c>
+      <c r="J120" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>114</v>
       </c>
       <c r="B121" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121" t="s">
         <v>229</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>174</v>
       </c>
       <c r="E121" t="s">
+        <v>258</v>
+      </c>
+      <c r="F121" t="s">
         <v>244</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H121" t="s">
-        <v>242</v>
-      </c>
-      <c r="I121" s="2">
+        <v>259</v>
+      </c>
+      <c r="I121" t="s">
+        <v>242</v>
+      </c>
+      <c r="J121" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>115</v>
       </c>
       <c r="B122" t="s">
+        <v>115</v>
+      </c>
+      <c r="C122" t="s">
         <v>230</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>173</v>
       </c>
       <c r="E122" t="s">
+        <v>258</v>
+      </c>
+      <c r="F122" t="s">
         <v>255</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H122" t="s">
-        <v>242</v>
-      </c>
-      <c r="I122" s="2">
+        <v>153</v>
+      </c>
+      <c r="I122" t="s">
+        <v>242</v>
+      </c>
+      <c r="J122" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>116</v>
       </c>
       <c r="B123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" t="s">
         <v>230</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>174</v>
       </c>
       <c r="E123" t="s">
+        <v>258</v>
+      </c>
+      <c r="F123" t="s">
         <v>255</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H123" t="s">
-        <v>242</v>
-      </c>
-      <c r="I123" s="2">
+        <v>153</v>
+      </c>
+      <c r="I123" t="s">
+        <v>242</v>
+      </c>
+      <c r="J123" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>117</v>
       </c>
       <c r="B124" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" t="s">
         <v>231</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>173</v>
       </c>
       <c r="E124" t="s">
+        <v>258</v>
+      </c>
+      <c r="F124" t="s">
         <v>244</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H124" t="s">
-        <v>242</v>
-      </c>
-      <c r="I124" s="2">
+        <v>151</v>
+      </c>
+      <c r="I124" t="s">
+        <v>242</v>
+      </c>
+      <c r="J124" s="2">
         <v>43082</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K124" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>118</v>
       </c>
       <c r="B125" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" t="s">
         <v>231</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>174</v>
       </c>
       <c r="E125" t="s">
+        <v>258</v>
+      </c>
+      <c r="F125" t="s">
         <v>244</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H125" t="s">
-        <v>242</v>
-      </c>
-      <c r="I125" s="2">
+        <v>151</v>
+      </c>
+      <c r="I125" t="s">
+        <v>242</v>
+      </c>
+      <c r="J125" s="2">
         <v>43082</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K125" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>119</v>
       </c>
       <c r="B126" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" t="s">
         <v>232</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>173</v>
       </c>
       <c r="E126" t="s">
+        <v>258</v>
+      </c>
+      <c r="F126" t="s">
         <v>256</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H126" t="s">
-        <v>242</v>
-      </c>
-      <c r="I126" s="2">
+        <v>153</v>
+      </c>
+      <c r="I126" t="s">
+        <v>242</v>
+      </c>
+      <c r="J126" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>120</v>
       </c>
       <c r="B127" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" t="s">
         <v>232</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>174</v>
       </c>
       <c r="E127" t="s">
+        <v>258</v>
+      </c>
+      <c r="F127" t="s">
         <v>256</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H127" t="s">
-        <v>242</v>
-      </c>
-      <c r="I127" s="2">
+        <v>153</v>
+      </c>
+      <c r="I127" t="s">
+        <v>242</v>
+      </c>
+      <c r="J127" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>121</v>
       </c>
       <c r="B128" t="s">
+        <v>121</v>
+      </c>
+      <c r="C128" t="s">
         <v>233</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>173</v>
       </c>
       <c r="E128" t="s">
+        <v>258</v>
+      </c>
+      <c r="F128" t="s">
         <v>244</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H128" t="s">
-        <v>242</v>
-      </c>
-      <c r="I128" s="2">
+        <v>260</v>
+      </c>
+      <c r="I128" t="s">
+        <v>242</v>
+      </c>
+      <c r="J128" s="2">
         <v>43085</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K128" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>122</v>
       </c>
       <c r="B129" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" t="s">
         <v>233</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>174</v>
       </c>
       <c r="E129" t="s">
+        <v>258</v>
+      </c>
+      <c r="F129" t="s">
         <v>244</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H129" t="s">
-        <v>242</v>
-      </c>
-      <c r="I129" s="2">
+        <v>260</v>
+      </c>
+      <c r="I129" t="s">
+        <v>242</v>
+      </c>
+      <c r="J129" s="2">
         <v>43085</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K129" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>123</v>
       </c>
       <c r="B130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" t="s">
         <v>234</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>173</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>250</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H130" t="s">
-        <v>242</v>
-      </c>
-      <c r="I130" s="2">
+        <v>146</v>
+      </c>
+      <c r="I130" t="s">
+        <v>242</v>
+      </c>
+      <c r="J130" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>124</v>
       </c>
       <c r="B131" t="s">
+        <v>124</v>
+      </c>
+      <c r="C131" t="s">
         <v>234</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>174</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>250</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H131" t="s">
-        <v>242</v>
-      </c>
-      <c r="I131" s="2">
+        <v>146</v>
+      </c>
+      <c r="I131" t="s">
+        <v>242</v>
+      </c>
+      <c r="J131" s="2">
         <v>43078</v>
       </c>
+      <c r="K131" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L131" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4301,9 +6118,139 @@
     <hyperlink ref="A17" r:id="rId128" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL8_S8_L004_R2_001.fastq.gz" xr:uid="{C078C75C-0543-4AE5-AC0E-9B50BCB48813}"/>
     <hyperlink ref="A18" r:id="rId129" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL9_S9_L004_R1_001.fastq.gz" xr:uid="{26F8E3B1-01EE-4688-8BD6-B8C08B58C18E}"/>
     <hyperlink ref="A19" r:id="rId130" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL9_S9_L004_R2_001.fastq.gz" xr:uid="{109816C9-60B4-49AB-8897-47385ADC20DE}"/>
+    <hyperlink ref="B20" r:id="rId131" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL10_S10_L004_R1_001.fastq.gz" xr:uid="{AD06DB0F-1E19-4EFE-89B5-1C6A90F592BB}"/>
+    <hyperlink ref="B21" r:id="rId132" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL10_S10_L004_R2_001.fastq.gz" xr:uid="{D891448C-BB11-4405-9198-3F43FB1004C7}"/>
+    <hyperlink ref="B22" r:id="rId133" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL11_S11_L004_R1_001.fastq.gz" xr:uid="{5C83B1FB-CEBD-4D09-AFD5-54553A5188A3}"/>
+    <hyperlink ref="B23" r:id="rId134" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL11_S11_L004_R2_001.fastq.gz" xr:uid="{00D3C8E6-7715-4DB6-A3DA-044E7CA689DA}"/>
+    <hyperlink ref="B24" r:id="rId135" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL12_S12_L004_R1_001.fastq.gz" xr:uid="{28851EFF-1919-4251-91EB-1BA7B21EA5C2}"/>
+    <hyperlink ref="B25" r:id="rId136" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL12_S12_L004_R2_001.fastq.gz" xr:uid="{914F0B4A-AAAC-4E95-BB95-1A541014B05A}"/>
+    <hyperlink ref="B26" r:id="rId137" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL13_S13_L004_R1_001.fastq.gz" xr:uid="{E4639914-9258-49CB-A051-D8C180ABE02B}"/>
+    <hyperlink ref="B27" r:id="rId138" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL13_S13_L004_R2_001.fastq.gz" xr:uid="{B6B59C04-ADD2-4316-863E-4A26735F1A82}"/>
+    <hyperlink ref="B28" r:id="rId139" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL14_S14_L004_R1_001.fastq.gz" xr:uid="{244333E5-7AD9-4AFB-9C04-3C602FAF3F32}"/>
+    <hyperlink ref="B29" r:id="rId140" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL14_S14_L004_R2_001.fastq.gz" xr:uid="{4B5BADDE-D20F-4F80-9E9A-D656D241C878}"/>
+    <hyperlink ref="B30" r:id="rId141" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL15_S15_L004_R1_001.fastq.gz" xr:uid="{753B49A6-B0FF-4D82-9CC8-83BADC4DC8DB}"/>
+    <hyperlink ref="B31" r:id="rId142" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL15_S15_L004_R2_001.fastq.gz" xr:uid="{098586E8-D1CA-4F57-A9EE-92DB8807DC68}"/>
+    <hyperlink ref="B32" r:id="rId143" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL16_S16_L004_R1_001.fastq.gz" xr:uid="{557FC64F-BCFC-433F-A2A9-A8DC64533278}"/>
+    <hyperlink ref="B33" r:id="rId144" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL16_S16_L004_R2_001.fastq.gz" xr:uid="{D931274C-74C4-4EA4-96DA-554DA428711F}"/>
+    <hyperlink ref="B34" r:id="rId145" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL17_S17_L004_R1_001.fastq.gz" xr:uid="{CB84BCC7-EFE3-4C34-9CF5-0E0EF6A8938D}"/>
+    <hyperlink ref="B35" r:id="rId146" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL17_S17_L004_R2_001.fastq.gz" xr:uid="{AD4C527A-085A-4EB1-A56F-F7633D1A7B17}"/>
+    <hyperlink ref="B36" r:id="rId147" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL18_S18_L004_R1_001.fastq.gz" xr:uid="{B56572B1-60BA-44CC-B9C3-CD8EFE35933F}"/>
+    <hyperlink ref="B37" r:id="rId148" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL18_S18_L004_R2_001.fastq.gz" xr:uid="{3ED5AD27-B453-4CB4-8A77-AF6F538C27D4}"/>
+    <hyperlink ref="B38" r:id="rId149" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL19_S19_L004_R1_001.fastq.gz" xr:uid="{965F9E0F-623E-472C-A500-01170C75145D}"/>
+    <hyperlink ref="B39" r:id="rId150" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL19_S19_L004_R2_001.fastq.gz" xr:uid="{F3C8B555-91AE-4515-8BE0-B0E7873BDE2E}"/>
+    <hyperlink ref="B2" r:id="rId151" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL1_S1_L004_R1_001.fastq.gz" xr:uid="{06569736-D8B0-4574-A218-1147B4C71503}"/>
+    <hyperlink ref="B3" r:id="rId152" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL1_S1_L004_R2_001.fastq.gz" xr:uid="{9C0429FC-103D-42BE-83C7-3B61D3DBF202}"/>
+    <hyperlink ref="B40" r:id="rId153" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL20_S20_L004_R1_001.fastq.gz" xr:uid="{34E8A4AF-3483-438D-B11A-BF242DCB205F}"/>
+    <hyperlink ref="B41" r:id="rId154" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL20_S20_L004_R2_001.fastq.gz" xr:uid="{BE6C3066-F142-49BE-9A45-53F8E61B69CA}"/>
+    <hyperlink ref="B42" r:id="rId155" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL21_S21_L004_R1_001.fastq.gz" xr:uid="{22D42BD3-2AA2-4967-9063-2C5E4996DEBA}"/>
+    <hyperlink ref="B43" r:id="rId156" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL21_S21_L004_R2_001.fastq.gz" xr:uid="{70EC97E7-6402-49D7-ACCA-6371D23188C9}"/>
+    <hyperlink ref="B44" r:id="rId157" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL22_S22_L004_R1_001.fastq.gz" xr:uid="{B5B93B58-3543-44DC-B7EC-A293F7D83ECB}"/>
+    <hyperlink ref="B45" r:id="rId158" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL22_S22_L004_R2_001.fastq.gz" xr:uid="{1A0D8F23-A15B-4B2D-BA1A-D0CC652D4803}"/>
+    <hyperlink ref="B46" r:id="rId159" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL23_S23_L004_R1_001.fastq.gz" xr:uid="{ECFC19BC-365F-4363-92FF-EB86B324FCEA}"/>
+    <hyperlink ref="B47" r:id="rId160" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL23_S23_L004_R2_001.fastq.gz" xr:uid="{7662D7D0-5C5E-49EB-B9E0-543AAAFEE47F}"/>
+    <hyperlink ref="B48" r:id="rId161" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL24_S24_L004_R1_001.fastq.gz" xr:uid="{4A0A7BFF-F21C-4352-B8AA-4AC8D1AF6BC1}"/>
+    <hyperlink ref="B49" r:id="rId162" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL24_S24_L004_R2_001.fastq.gz" xr:uid="{5A703BF4-C58A-4C86-A6AD-3BCB9FF6E24E}"/>
+    <hyperlink ref="B50" r:id="rId163" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL25_S25_L004_R1_001.fastq.gz" xr:uid="{CA9568A6-6C32-49B5-88C9-773287062DE4}"/>
+    <hyperlink ref="B51" r:id="rId164" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL25_S25_L004_R2_001.fastq.gz" xr:uid="{A7F361BC-E6E3-4ECA-86C2-A801C55CD2F5}"/>
+    <hyperlink ref="B52" r:id="rId165" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL26_S26_L004_R1_001.fastq.gz" xr:uid="{016B8BC9-7777-4A93-BA59-2CDE26972830}"/>
+    <hyperlink ref="B53" r:id="rId166" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL26_S26_L004_R2_001.fastq.gz" xr:uid="{E2CA93C4-3212-4394-9822-CC1EF5735605}"/>
+    <hyperlink ref="B54" r:id="rId167" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL27_S27_L004_R1_001.fastq.gz" xr:uid="{961727DC-366A-4075-9172-30D4595679C7}"/>
+    <hyperlink ref="B55" r:id="rId168" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL27_S27_L004_R2_001.fastq.gz" xr:uid="{FE8BE53C-F040-4465-962A-27CDE9B870D8}"/>
+    <hyperlink ref="B56" r:id="rId169" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL28_S28_L004_R1_001.fastq.gz" xr:uid="{09DCF775-5D77-438D-9800-5842DCF538D3}"/>
+    <hyperlink ref="B57" r:id="rId170" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL28_S28_L004_R2_001.fastq.gz" xr:uid="{C00E54C0-9394-47C0-92A1-4123DC96A71D}"/>
+    <hyperlink ref="B58" r:id="rId171" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL29_S29_L004_R1_001.fastq.gz" xr:uid="{B85ADA7D-4B24-47B9-BBB1-45484CAECEDD}"/>
+    <hyperlink ref="B59" r:id="rId172" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL29_S29_L004_R2_001.fastq.gz" xr:uid="{BCE93116-E233-4067-9E48-7CB098EBB6A2}"/>
+    <hyperlink ref="B4" r:id="rId173" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL2_S2_L004_R1_001.fastq.gz" xr:uid="{D81ED078-BC72-4ADF-A1CB-A06EF31A6E95}"/>
+    <hyperlink ref="B5" r:id="rId174" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL2_S2_L004_R2_001.fastq.gz" xr:uid="{876679E8-78CC-4C13-B921-B6BE0B57D02A}"/>
+    <hyperlink ref="B78" r:id="rId175" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL30_S30_L004_R1_001.fastq.gz" xr:uid="{F595AFC0-8794-4446-BBCD-11958C957831}"/>
+    <hyperlink ref="B79" r:id="rId176" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL30_S30_L004_R2_001.fastq.gz" xr:uid="{D3DC8316-D0E3-483D-8422-EEDD264E2A13}"/>
+    <hyperlink ref="B60" r:id="rId177" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL31_S31_L004_R1_001.fastq.gz" xr:uid="{2D9886A7-8842-4BE4-872A-EF892F181807}"/>
+    <hyperlink ref="B61" r:id="rId178" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL31_S31_L004_R2_001.fastq.gz" xr:uid="{0527B95D-4DB8-416D-9D39-E45AE00A56FE}"/>
+    <hyperlink ref="B62" r:id="rId179" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL32_S32_L004_R1_001.fastq.gz" xr:uid="{40A18924-934C-4520-A14E-13B816A91543}"/>
+    <hyperlink ref="B63" r:id="rId180" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL32_S32_L004_R2_001.fastq.gz" xr:uid="{AF6BC1DF-0EDE-433F-93DB-E10E8C8BD80F}"/>
+    <hyperlink ref="B64" r:id="rId181" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL33_S33_L004_R1_001.fastq.gz" xr:uid="{3C88BFBB-300C-408C-B350-79F2376BD4BF}"/>
+    <hyperlink ref="B65" r:id="rId182" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL33_S33_L004_R2_001.fastq.gz" xr:uid="{C3260015-7693-42A8-ACC3-360ED434F2E3}"/>
+    <hyperlink ref="B66" r:id="rId183" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL34_S34_L004_R1_001.fastq.gz" xr:uid="{CA1255D7-FD2A-4BE0-99A9-0D4D2C5A6C24}"/>
+    <hyperlink ref="B67" r:id="rId184" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL34_S34_L004_R2_001.fastq.gz" xr:uid="{B882BFC5-6054-4056-A0C7-05797210CC0D}"/>
+    <hyperlink ref="B68" r:id="rId185" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL35_S35_L004_R1_001.fastq.gz" xr:uid="{FC695F55-3126-4658-BA63-6840ABE86D01}"/>
+    <hyperlink ref="B69" r:id="rId186" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL35_S35_L004_R2_001.fastq.gz" xr:uid="{6E11CB05-27EE-48B0-9C0C-94FA344DA612}"/>
+    <hyperlink ref="B70" r:id="rId187" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL36_S36_L004_R1_001.fastq.gz" xr:uid="{EE06239A-7716-47D0-8769-FACD5E70464C}"/>
+    <hyperlink ref="B71" r:id="rId188" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL36_S36_L004_R2_001.fastq.gz" xr:uid="{7271D87A-4186-4955-AC53-85265507F12E}"/>
+    <hyperlink ref="B72" r:id="rId189" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL37_S37_L004_R1_001.fastq.gz" xr:uid="{98D9E19A-0D7E-40D8-A0C1-EF2A1376E374}"/>
+    <hyperlink ref="B73" r:id="rId190" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL37_S37_L004_R2_001.fastq.gz" xr:uid="{B9207CAE-CE0B-4D0D-AF50-2DE1FE81C08B}"/>
+    <hyperlink ref="B74" r:id="rId191" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL38_S38_L004_R1_001.fastq.gz" xr:uid="{09ECC184-9087-4EA6-8303-5F06604BDB85}"/>
+    <hyperlink ref="B75" r:id="rId192" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL38_S38_L004_R2_001.fastq.gz" xr:uid="{2EF11588-F45C-49F2-8233-34A1D0D3FB24}"/>
+    <hyperlink ref="B76" r:id="rId193" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL39_S39_L004_R1_001.fastq.gz" xr:uid="{24369C33-82B8-4CB7-91D3-65E0EA9D66E3}"/>
+    <hyperlink ref="B77" r:id="rId194" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL39_S39_L004_R2_001.fastq.gz" xr:uid="{4E0F291C-B8E1-41D2-85BC-7C61735F590F}"/>
+    <hyperlink ref="B6" r:id="rId195" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL3_S3_L004_R1_001.fastq.gz" xr:uid="{1CCFFA0E-0C82-461A-993B-2B5F2A326236}"/>
+    <hyperlink ref="B7" r:id="rId196" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL3_S3_L004_R2_001.fastq.gz" xr:uid="{A1D371E5-FF22-482D-95E7-7FA40C83D95A}"/>
+    <hyperlink ref="B80" r:id="rId197" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL40_S40_L004_R1_001.fastq.gz" xr:uid="{9B8D96EF-65DD-4738-963E-C7DFC6DCA513}"/>
+    <hyperlink ref="B81" r:id="rId198" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL40_S40_L004_R2_001.fastq.gz" xr:uid="{E02C9757-F4A5-4837-8DBB-0384B06C3F1C}"/>
+    <hyperlink ref="B82" r:id="rId199" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL41_S41_L004_R1_001.fastq.gz" xr:uid="{B8A3E655-8498-4F0C-BB25-5E6134424AB8}"/>
+    <hyperlink ref="B83" r:id="rId200" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL41_S41_L004_R2_001.fastq.gz" xr:uid="{95D7A38C-3EC7-4D18-A4B7-FBFB75C2F545}"/>
+    <hyperlink ref="B84" r:id="rId201" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL42_S42_L004_R1_001.fastq.gz" xr:uid="{4FA5B5C5-3783-4442-9A08-D8154764FBFC}"/>
+    <hyperlink ref="B85" r:id="rId202" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL42_S42_L004_R2_001.fastq.gz" xr:uid="{3C59A1C8-6D82-4FF2-AE6E-D12BF6383416}"/>
+    <hyperlink ref="B86" r:id="rId203" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL43_S43_L004_R1_001.fastq.gz" xr:uid="{FDF2C882-723F-4ACE-8469-CDAE58B40A9F}"/>
+    <hyperlink ref="B87" r:id="rId204" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL43_S43_L004_R2_001.fastq.gz" xr:uid="{883E737A-C09F-48AF-8753-E34F47546E6B}"/>
+    <hyperlink ref="B88" r:id="rId205" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL44_S44_L004_R1_001.fastq.gz" xr:uid="{F98D88C6-9A0F-4819-B7A7-42D49B21703C}"/>
+    <hyperlink ref="B89" r:id="rId206" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL44_S44_L004_R2_001.fastq.gz" xr:uid="{2241C7C2-0571-4D27-A14C-619C63B425E3}"/>
+    <hyperlink ref="B90" r:id="rId207" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL45_S45_L004_R1_001.fastq.gz" xr:uid="{C5C3861B-ACBD-4466-877A-9BE759AB971A}"/>
+    <hyperlink ref="B91" r:id="rId208" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL45_S45_L004_R2_001.fastq.gz" xr:uid="{D81CB0C3-9847-4EFE-9632-CB3000560C3B}"/>
+    <hyperlink ref="B92" r:id="rId209" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL46_S46_L004_R1_001.fastq.gz" xr:uid="{F5ED072C-1BD2-4365-BE64-71A9C9CE0C35}"/>
+    <hyperlink ref="B93" r:id="rId210" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL46_S46_L004_R2_001.fastq.gz" xr:uid="{073A4BA3-EC94-4E08-96C2-04DA99B0782D}"/>
+    <hyperlink ref="B94" r:id="rId211" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL47_S47_L004_R1_001.fastq.gz" xr:uid="{6E9CD6FE-9E42-4547-92BC-D0D225F9522B}"/>
+    <hyperlink ref="B95" r:id="rId212" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL47_S47_L004_R2_001.fastq.gz" xr:uid="{5DB1F77F-C3A2-44E1-AEA0-9FD738561ECE}"/>
+    <hyperlink ref="B96" r:id="rId213" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL48_S48_L004_R1_001.fastq.gz" xr:uid="{7F45B664-6E89-4345-B3B6-6078FD1D913E}"/>
+    <hyperlink ref="B97" r:id="rId214" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL48_S48_L004_R2_001.fastq.gz" xr:uid="{4BD715AC-B19A-4AF6-BCDA-FC123BE61D7A}"/>
+    <hyperlink ref="B98" r:id="rId215" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL49_S49_L004_R1_001.fastq.gz" xr:uid="{EFB74830-A113-44BB-830D-6DCBABDBBECC}"/>
+    <hyperlink ref="B99" r:id="rId216" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL49_S49_L004_R2_001.fastq.gz" xr:uid="{A420BD2F-5494-4AB7-A1D3-55188DA494D2}"/>
+    <hyperlink ref="B8" r:id="rId217" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL4_S4_L004_R1_001.fastq.gz" xr:uid="{A008B2DD-8852-4AA8-B0A2-4829BCD601CE}"/>
+    <hyperlink ref="B9" r:id="rId218" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL4_S4_L004_R2_001.fastq.gz" xr:uid="{A303B253-D990-4A1F-B872-119AEB9D748F}"/>
+    <hyperlink ref="B100" r:id="rId219" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL50_S50_L004_R1_001.fastq.gz" xr:uid="{E7FCEA9B-6116-4F66-8B11-1F0BA0D8940E}"/>
+    <hyperlink ref="B101" r:id="rId220" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL50_S50_L004_R2_001.fastq.gz" xr:uid="{27B30782-8CE2-4C33-9AC8-0672D830D6E0}"/>
+    <hyperlink ref="B102" r:id="rId221" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL51_S51_L004_R1_001.fastq.gz" xr:uid="{1071BEF7-43E5-45E7-BA72-9C6E42BAA8D1}"/>
+    <hyperlink ref="B103" r:id="rId222" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL51_S51_L004_R2_001.fastq.gz" xr:uid="{86FEC719-9360-49CC-A322-CB26AE42EB16}"/>
+    <hyperlink ref="B104" r:id="rId223" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL52_S52_L004_R1_001.fastq.gz" xr:uid="{10B4B5FD-BDB8-4C34-BA84-3C7793C04815}"/>
+    <hyperlink ref="B105" r:id="rId224" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL52_S52_L004_R2_001.fastq.gz" xr:uid="{98684DBF-53FC-44EC-99DF-7F07B7C512BA}"/>
+    <hyperlink ref="B106" r:id="rId225" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL53_S53_L004_R1_001.fastq.gz" xr:uid="{331C1B54-9BB4-427B-975F-70F8BA8507A8}"/>
+    <hyperlink ref="B107" r:id="rId226" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL53_S53_L004_R2_001.fastq.gz" xr:uid="{284B8075-C34B-4861-8B60-8E543252D8DE}"/>
+    <hyperlink ref="B108" r:id="rId227" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL54_S54_L004_R1_001.fastq.gz" xr:uid="{1FB7A2F6-6535-4DEC-9D6F-CAC7CA193635}"/>
+    <hyperlink ref="B109" r:id="rId228" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL54_S54_L004_R2_001.fastq.gz" xr:uid="{67C3D4C0-B039-4321-A465-CB42E814EBD3}"/>
+    <hyperlink ref="B110" r:id="rId229" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL55_S55_L004_R1_001.fastq.gz" xr:uid="{02BE37A9-79D4-400A-8225-5CDB9CC9C88B}"/>
+    <hyperlink ref="B111" r:id="rId230" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL55_S55_L004_R2_001.fastq.gz" xr:uid="{7348E318-BAEC-4D23-9423-41D65DA050DC}"/>
+    <hyperlink ref="B112" r:id="rId231" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL56_S56_L004_R1_001.fastq.gz" xr:uid="{A2650997-2A54-40D7-B8B7-09D68E7A2077}"/>
+    <hyperlink ref="B113" r:id="rId232" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL56_S56_L004_R2_001.fastq.gz" xr:uid="{FD0E587D-0ABE-4F81-92CE-E9429F2619FE}"/>
+    <hyperlink ref="B114" r:id="rId233" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL57_S57_L004_R1_001.fastq.gz" xr:uid="{783435ED-EB59-4804-BE5C-ADCC1E97AEC2}"/>
+    <hyperlink ref="B115" r:id="rId234" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL57_S57_L004_R2_001.fastq.gz" xr:uid="{77BB6F2C-E43B-460F-8F5A-D5B88CF41BA0}"/>
+    <hyperlink ref="B116" r:id="rId235" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL58_S58_L004_R1_001.fastq.gz" xr:uid="{A729614F-4085-4EB7-BB90-E643A55E8010}"/>
+    <hyperlink ref="B117" r:id="rId236" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL58_S58_L004_R2_001.fastq.gz" xr:uid="{E66CE926-50F2-4B2D-901F-FC31B5BC96BF}"/>
+    <hyperlink ref="B118" r:id="rId237" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL59_S59_L004_R1_001.fastq.gz" xr:uid="{4138ED4A-1F64-4B9D-B96E-320E47A61E16}"/>
+    <hyperlink ref="B119" r:id="rId238" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL59_S59_L004_R2_001.fastq.gz" xr:uid="{EE9FAD14-901B-4D47-8440-FAE0DB5E3275}"/>
+    <hyperlink ref="B10" r:id="rId239" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL5_S5_L004_R1_001.fastq.gz" xr:uid="{53A2EB0A-EE78-4A73-A3C5-73A5026C2624}"/>
+    <hyperlink ref="B11" r:id="rId240" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL5_S5_L004_R2_001.fastq.gz" xr:uid="{F2FED34F-A0E1-4648-9289-06DE6FB239F2}"/>
+    <hyperlink ref="B120" r:id="rId241" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL60_S60_L004_R1_001.fastq.gz" xr:uid="{DDAA46C4-349A-4646-AA2B-9D6D9C9731A2}"/>
+    <hyperlink ref="B121" r:id="rId242" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL60_S60_L004_R2_001.fastq.gz" xr:uid="{CDEA685E-5D8C-4C9D-A572-8EF1BDC04537}"/>
+    <hyperlink ref="B122" r:id="rId243" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL61_S61_L004_R1_001.fastq.gz" xr:uid="{A723398F-E761-4982-979F-A4701E471078}"/>
+    <hyperlink ref="B123" r:id="rId244" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL61_S61_L004_R2_001.fastq.gz" xr:uid="{864BF277-1A8F-41E1-99C9-8906549B418F}"/>
+    <hyperlink ref="B124" r:id="rId245" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL62_S62_L004_R1_001.fastq.gz" xr:uid="{F674C40A-463D-4744-ACFD-8B23818D70DF}"/>
+    <hyperlink ref="B125" r:id="rId246" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL62_S62_L004_R2_001.fastq.gz" xr:uid="{835F0B8A-5F2A-411A-BA53-253C08A0EDAD}"/>
+    <hyperlink ref="B126" r:id="rId247" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL63_S63_L004_R1_001.fastq.gz" xr:uid="{69F2A813-87EA-4009-BCC4-2F2D6F10508C}"/>
+    <hyperlink ref="B127" r:id="rId248" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL63_S63_L004_R2_001.fastq.gz" xr:uid="{12820612-7AB4-4406-9EEB-6B597DA34D63}"/>
+    <hyperlink ref="B128" r:id="rId249" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL64_S64_L004_R1_001.fastq.gz" xr:uid="{0C457F63-BB15-4EE4-A676-DD4A03910608}"/>
+    <hyperlink ref="B129" r:id="rId250" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL64_S64_L004_R2_001.fastq.gz" xr:uid="{B53B2F8D-2141-4F98-8D61-F4BB9906FF4E}"/>
+    <hyperlink ref="B130" r:id="rId251" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL65_S65_L004_R1_001.fastq.gz" xr:uid="{C0976530-A852-4AF0-97A9-459AF6E4FDC5}"/>
+    <hyperlink ref="B131" r:id="rId252" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL65_S65_L004_R2_001.fastq.gz" xr:uid="{4B5D194B-29F1-45EA-A357-4E1A5EB81E18}"/>
+    <hyperlink ref="B12" r:id="rId253" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL6_S6_L004_R1_001.fastq.gz" xr:uid="{4734086F-F0C6-45CD-8016-87E26E8E569E}"/>
+    <hyperlink ref="B13" r:id="rId254" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL6_S6_L004_R2_001.fastq.gz" xr:uid="{461E22A3-3195-4C13-9FAB-A3A01EC41CF6}"/>
+    <hyperlink ref="B14" r:id="rId255" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL7_S7_L004_R1_001.fastq.gz" xr:uid="{DCDCEE9F-0192-4C72-9C3D-6B1C52EE3EE8}"/>
+    <hyperlink ref="B15" r:id="rId256" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL7_S7_L004_R2_001.fastq.gz" xr:uid="{04904111-87DC-472F-A3CC-31F0D3F4254B}"/>
+    <hyperlink ref="B16" r:id="rId257" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL8_S8_L004_R1_001.fastq.gz" xr:uid="{24A67041-7381-4CD2-A772-D262E78E9EA0}"/>
+    <hyperlink ref="B17" r:id="rId258" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL8_S8_L004_R2_001.fastq.gz" xr:uid="{A5C52A2E-ACEC-4195-84CB-BC5F4FC78514}"/>
+    <hyperlink ref="B18" r:id="rId259" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL9_S9_L004_R1_001.fastq.gz" xr:uid="{C6A52B21-3600-45A4-9752-77F774A2257F}"/>
+    <hyperlink ref="B19" r:id="rId260" display="ftp://igm-storage2.ucsd.edu/191023_A00953_0017_AHTJKFDSXX/EL9_S9_L004_R2_001.fastq.gz" xr:uid="{2451E710-6296-477F-A3B7-C57F5B329B4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId131"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId261"/>
 </worksheet>
 </file>
 
@@ -4311,8 +6258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCD8D4D-D55D-44E2-9BE6-EF2D0816E5CC}">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
